--- a/DB/DBMap.xlsx
+++ b/DB/DBMap.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="IP" sheetId="1" r:id="rId1"/>
-    <sheet name="DBandTables" sheetId="2" r:id="rId2"/>
+    <sheet name="ConnStrings" sheetId="3" r:id="rId2"/>
+    <sheet name="DBandTables" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
   <si>
     <t>Remote Desktop</t>
   </si>
@@ -73,9 +74,6 @@
     <t>wms server test environment</t>
   </si>
   <si>
-    <t>bpm server test environment</t>
-  </si>
-  <si>
     <t>IP</t>
   </si>
   <si>
@@ -119,13 +117,148 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>BuilderMT workflow Management Suite</t>
+  </si>
+  <si>
+    <t>masterkey</t>
+  </si>
+  <si>
+    <t>Connections Strings</t>
+  </si>
+  <si>
+    <t>Data Source=MORSQL;Initial Catalog=BPMWorkflow;User Id=bpm_user;Password=resu_mpb1; TrustServerCertificate=True</t>
+  </si>
+  <si>
+    <t>MORSQL</t>
+  </si>
+  <si>
+    <t>VMORT</t>
+  </si>
+  <si>
+    <t>Data Source=VMORTL\\SQLEXPRESS;Initial Catalog=TimberlineLink;User Id=ITMain;Password=M0rr1s0n1961; TrustServerCertificate=True</t>
+  </si>
+  <si>
+    <t>DataSource=MORAPPS1;Database=D:\TIMBERLINE\TIMBERLINE OFFICE\BuilderMT\HMS DATABASE\WMS.fdb;User=SYSADMIN;Password=masterkey;</t>
+  </si>
+  <si>
+    <t>HMS</t>
+  </si>
+  <si>
+    <t>D:\TIMBERLINE\TIMBERLINE OFFICE\BuilderMT\HMS DATABASE\WMS.fdb</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>VM - Remote Desktops</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>SYSADMIN</t>
+  </si>
+  <si>
+    <t>bpm server test environment / iis api's</t>
+  </si>
+  <si>
+    <t>Table Name</t>
+  </si>
+  <si>
+    <t>Databse Name</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>WMS</t>
+  </si>
+  <si>
+    <t>BuilderMT workflow Management Suite / old</t>
+  </si>
+  <si>
+    <t>SQLSERVER Server Objects/Linked Servers/WMS</t>
+  </si>
+  <si>
+    <t>SQLSERVER Server Objects/Linked Servers/HMS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>ITMain</t>
+  </si>
+  <si>
+    <t>M0rr1s0n1961</t>
+  </si>
+  <si>
+    <t>bpm_user</t>
+  </si>
+  <si>
+    <t>resu_mpb1</t>
+  </si>
+  <si>
+    <t>Scaffold Commands</t>
+  </si>
+  <si>
+    <t>TimberlineLink</t>
+  </si>
+  <si>
+    <t>Scaffold-DbContext -Connection "Server=VMORTL\SQLEXPRESS;Database=TimberlineLink;User Id=ITMain;Password=M0rr1s0n1961; TrustServerCertificate=True" -Provider Microsoft.EntityFrameworkCore.SqlServer -Context TimberlineLinkContext -DataAnnotations –Force</t>
+  </si>
+  <si>
+    <t>Scaffold-DbContext -Connection "Data Source=MORSQL;Initial Catalog=MorrisonHomes;User Id=bpm_user;Password=resu_mpb1; TrustServerCertificate=True" -Provider Microsoft.EntityFrameworkCore.SqlServer -Context MorrisonHomesContext -DataAnnotations –Force</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>GAC Commands</t>
+  </si>
+  <si>
+    <t>gacutil.exe /i "C:\Program Files (x86)\FirebirdClient\FirebirdSql.Data.FirebirdClient.dll"</t>
+  </si>
+  <si>
+    <t>gacutil /i "C:\Program Files (x86)\FirebirdDDEX\EntityFramework.Firebird.dll"</t>
+  </si>
+  <si>
+    <t>documentation</t>
+  </si>
+  <si>
+    <t>https://firebirdsql.org/file/documentation/html/en/refdocs/fbdevgd30/firebird-30-developers-guide.html#fbdevgd30-efw</t>
+  </si>
+  <si>
+    <t>https://www.firebirdfaq.org/faq348/</t>
+  </si>
+  <si>
+    <t>Visual Studio</t>
+  </si>
+  <si>
+    <t>evan.doucett@morrisonhomes.ca</t>
+  </si>
+  <si>
+    <t>VisualStudio</t>
+  </si>
+  <si>
+    <t>HMS Test</t>
+  </si>
+  <si>
+    <t>MORSQL Prod/Test</t>
+  </si>
+  <si>
+    <t>VMORT Prod/Test</t>
+  </si>
+  <si>
+    <t>Code Document</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,8 +282,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,8 +317,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -187,18 +347,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -485,169 +756,641 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="B1:D15"/>
+  <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="5" t="s">
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="C18" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="C19" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="mailto:morrisonitsupport@morrisonhomes.ca"/>
+    <hyperlink ref="E5" r:id="rId1" display="mailto:morrisonitsupport@morrisonhomes.ca"/>
+    <hyperlink ref="C9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+    </row>
+    <row r="10" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="20"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="22"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C13:U13"/>
+    <mergeCell ref="C16:U16"/>
+    <mergeCell ref="C17:U17"/>
+    <mergeCell ref="C15:U15"/>
+    <mergeCell ref="C14:U14"/>
+    <mergeCell ref="C11:U11"/>
+    <mergeCell ref="C10:U10"/>
+    <mergeCell ref="C9:U9"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C15" r:id="rId1" location="fbdevgd30-efw"/>
+    <hyperlink ref="C14" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="41.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DB/DBMap.xlsx
+++ b/DB/DBMap.xlsx
@@ -10,6 +10,10 @@
     <sheet name="IP" sheetId="1" r:id="rId1"/>
     <sheet name="ConnStrings" sheetId="3" r:id="rId2"/>
     <sheet name="DBandTables" sheetId="2" r:id="rId3"/>
+    <sheet name="BPMScheduleLookUp" sheetId="4" r:id="rId4"/>
+    <sheet name="BPMOE" sheetId="5" r:id="rId5"/>
+    <sheet name="BPMDOCMAN" sheetId="6" r:id="rId6"/>
+    <sheet name="NETWORKMAP" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="183">
   <si>
     <t>Remote Desktop</t>
   </si>
@@ -252,13 +256,331 @@
   </si>
   <si>
     <t>Code Document</t>
+  </si>
+  <si>
+    <t>Schedule Look Up Project</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A simple UX that will receive a job number and retrieve a job table showing a tradelist workflow.  </t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Users will be mainly field employees</t>
+  </si>
+  <si>
+    <t>Device used</t>
+  </si>
+  <si>
+    <t>laptops, tablets</t>
+  </si>
+  <si>
+    <t>Naming Conventions</t>
+  </si>
+  <si>
+    <t>ScheduleLoopUp</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data </t>
+  </si>
+  <si>
+    <t>Table data Activity, Subcontractor, Schedule Start, Start, End, Note, SEQ(not needed) are to be viewed</t>
+  </si>
+  <si>
+    <t>Cleansing data</t>
+  </si>
+  <si>
+    <t>Yes, must be in all caps</t>
+  </si>
+  <si>
+    <t>Reading and Writing</t>
+  </si>
+  <si>
+    <t>Reading from the DB, no writing.</t>
+  </si>
+  <si>
+    <t>Design Specs</t>
+  </si>
+  <si>
+    <t>Search Screen</t>
+  </si>
+  <si>
+    <t>search field, search button</t>
+  </si>
+  <si>
+    <t>Result Screen</t>
+  </si>
+  <si>
+    <t>back button, close button, Address at the top with owner</t>
+  </si>
+  <si>
+    <t>Table Columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity, subcontractor, schedule start, schedule end, start, end, note, seq </t>
+  </si>
+  <si>
+    <t>Imaging</t>
+  </si>
+  <si>
+    <t>Tables Involved</t>
+  </si>
+  <si>
+    <t>Not required</t>
+  </si>
+  <si>
+    <t>Existing</t>
+  </si>
+  <si>
+    <t>Creation</t>
+  </si>
+  <si>
+    <t>Logs</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Database Involved</t>
+  </si>
+  <si>
+    <t>MORSQL WMS_Cache</t>
+  </si>
+  <si>
+    <t>dbo.JOB</t>
+  </si>
+  <si>
+    <t>Software Involved</t>
+  </si>
+  <si>
+    <t>Builder MT product, wms workflow management system</t>
+  </si>
+  <si>
+    <t>Import required?</t>
+  </si>
+  <si>
+    <t>API Required</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Minimal security, no $ values</t>
+  </si>
+  <si>
+    <t>Only Admin</t>
+  </si>
+  <si>
+    <t>yes, must be able to add admin users and add locations</t>
+  </si>
+  <si>
+    <t>Additions to original Project</t>
+  </si>
+  <si>
+    <t>Aux Jobs - Printing PDF</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Aux Jobs - Save to file PDF</t>
+  </si>
+  <si>
+    <t>Aux Jobs - Email Notification</t>
+  </si>
+  <si>
+    <t>Operations Expense Project</t>
+  </si>
+  <si>
+    <t>To create a UX that will submit a request to an approver. The approver can approve or reject the request.  The approver will also have the ability to autoapprove their own tansaction under a the posted limit</t>
+  </si>
+  <si>
+    <t>Office staff</t>
+  </si>
+  <si>
+    <t>laptops</t>
+  </si>
+  <si>
+    <t>OERequest</t>
+  </si>
+  <si>
+    <t>Create new tables to support product, one table that combines both edmonton and calgary.</t>
+  </si>
+  <si>
+    <t>yes, not special characters are allowed due to import issues</t>
+  </si>
+  <si>
+    <t>yes full crud fucntions</t>
+  </si>
+  <si>
+    <t>Approve screen</t>
+  </si>
+  <si>
+    <t>approve reject, reject deletes all files and oe</t>
+  </si>
+  <si>
+    <t>Request Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry sanitization, auto approve, gst calculations, </t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Requestor can edit and add documentations</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Requestor can delete but approver can delete if rejected</t>
+  </si>
+  <si>
+    <t>Upload</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Save to Program</t>
+  </si>
+  <si>
+    <t>Yes, saved to "files"</t>
+  </si>
+  <si>
+    <t>Save Locally</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>MORSQL Operating Expense, VMORT TimberlineLink / TimberlineEdmonton</t>
+  </si>
+  <si>
+    <t>VMORTL vendor tables and gl tables</t>
+  </si>
+  <si>
+    <t>tblrequest, tblimages, tbllocation, tbllogs</t>
+  </si>
+  <si>
+    <t>yes, new table is required</t>
+  </si>
+  <si>
+    <t>Software Involved/requirments</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Sage, the values will be imported into sage</t>
+  </si>
+  <si>
+    <t>yes, jcc file</t>
+  </si>
+  <si>
+    <t>Yes, notify the approver, requestor of the various statges</t>
+  </si>
+  <si>
+    <t>Document Mananager Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A simple UX that will receive a job number and retrieve / insert documents and or create a folder if nessissary.  </t>
+  </si>
+  <si>
+    <t>DocMan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table data Image locations are to be viewed. </t>
+  </si>
+  <si>
+    <t>Cleansing input data</t>
+  </si>
+  <si>
+    <t>Yes, JOB NUMBER must be in all caps Or by search address</t>
+  </si>
+  <si>
+    <t>Reading image locations from the DB, open file from db, print file, create a file, create a file location.</t>
+  </si>
+  <si>
+    <t>search field, search button, open doc or create and attached doc</t>
+  </si>
+  <si>
+    <t>back button,  Address at the top with owner</t>
+  </si>
+  <si>
+    <t>BPMWorkflow.dbo.BpmLog</t>
+  </si>
+  <si>
+    <t>Images Locations</t>
+  </si>
+  <si>
+    <t>\\morfsdc1\CustomerDocs</t>
+  </si>
+  <si>
+    <t>BPMWorkflow.dbo.BpmLog  on creation or delete</t>
+  </si>
+  <si>
+    <t>yes, to retrieve data</t>
+  </si>
+  <si>
+    <t>TIMERBERLINE 300</t>
+  </si>
+  <si>
+    <t>sage 300</t>
+  </si>
+  <si>
+    <t>flatfile database</t>
+  </si>
+  <si>
+    <t>psql</t>
+  </si>
+  <si>
+    <t>odbc</t>
+  </si>
+  <si>
+    <t>update statements with join</t>
+  </si>
+  <si>
+    <t>sage test db</t>
+  </si>
+  <si>
+    <t>Sage Test Db</t>
+  </si>
+  <si>
+    <t>sage test</t>
+  </si>
+  <si>
+    <t>10.24.1.15</t>
+  </si>
+  <si>
+    <t>OdbcConnection Class (System.Data.Odbc) | Microsoft Learn</t>
+  </si>
+  <si>
+    <t>https://morrisonsf.builderportal.net/</t>
+  </si>
+  <si>
+    <t>WARRANTY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,8 +625,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,8 +665,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -397,12 +751,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -418,58 +785,102 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -488,6 +899,400 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="Group 2"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9820275" y="5257800"/>
+          <a:ext cx="6800850" cy="10048875"/>
+          <a:chOff x="10736036" y="612321"/>
+          <a:chExt cx="11785041" cy="12998096"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="4" name="Group 3"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="10736036" y="612321"/>
+            <a:ext cx="11785041" cy="12998096"/>
+            <a:chOff x="10736036" y="612321"/>
+            <a:chExt cx="11785041" cy="12998096"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Picture 5"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10736037" y="7143750"/>
+              <a:ext cx="11785040" cy="6466667"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Picture 6"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10736036" y="612321"/>
+              <a:ext cx="6772793" cy="6504762"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="TextBox 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18151929" y="1387929"/>
+            <a:ext cx="3320142" cy="3619500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-CA" sz="3200"/>
+              <a:t>old screen and layout</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>21395</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9858375" y="0"/>
+          <a:ext cx="6324600" cy="5202995"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152088</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>126752</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="C:\Users\edoucett\AppData\Local\Packages\Microsoft.Windows.Photos_8wekyb3d8bbwe\TempState\ShareServiceTempFolder\OE MAIN SCREEN.jpeg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12563163" y="447675"/>
+          <a:ext cx="7325036" cy="4155827"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>141437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="C:\Users\edoucett\AppData\Local\Packages\Microsoft.Windows.Photos_8wekyb3d8bbwe\TempState\ShareServiceTempFolder\OEAPPROVALFLOW.jpeg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12525375" y="4618187"/>
+          <a:ext cx="13677899" cy="5316387"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>27481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>319424</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="C:\Users\edoucett\AppData\Local\Packages\Microsoft.Windows.Photos_8wekyb3d8bbwe\TempState\ShareServiceTempFolder\OEREQUEST.jpeg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12715875" y="9952531"/>
+          <a:ext cx="11597024" cy="5030293"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>388659</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>113431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9991725" y="419100"/>
+          <a:ext cx="14923809" cy="6952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -756,10 +1561,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="B1:E20"/>
+  <dimension ref="B1:E40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,203 +1601,275 @@
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="40" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>28</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="23"/>
+        <v>27</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="23"/>
+        <v>33</v>
+      </c>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="23"/>
+        <v>58</v>
+      </c>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="23"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="24" t="s">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="25" t="s">
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" display="mailto:morrisonitsupport@morrisonhomes.ca"/>
-    <hyperlink ref="C9" r:id="rId2"/>
+    <hyperlink ref="E6" r:id="rId1" display="mailto:morrisonitsupport@morrisonhomes.ca"/>
+    <hyperlink ref="C10" r:id="rId2"/>
+    <hyperlink ref="B40" r:id="rId3" display="https://learn.microsoft.com/en-us/dotnet/api/system.data.odbc.odbcconnection?view=dotnet-plat-ext-8.0"/>
+    <hyperlink ref="E11" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="B2:U17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:M7"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,295 +1890,295 @@
       <c r="B3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="28"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
     </row>
     <row r="10" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="20"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="35"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="22"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="33"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1330,6 +2207,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="B3:F5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1393,4 +2273,905 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:C37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="111" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="39"/>
+    </row>
+    <row r="3" spans="2:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="18"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="21"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="21"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="18"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="18"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="18"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:E48"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="58.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="118.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="12"/>
+      <c r="C3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="B4" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="18"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="21"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="21"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="18"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="19"/>
+      <c r="C30" s="17"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="18"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="19"/>
+      <c r="C35" s="17"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="18"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="B2:C39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="108.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="2:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="39"/>
+    </row>
+    <row r="4" spans="2:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="12"/>
+      <c r="C5" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="24"/>
+    </row>
+    <row r="8" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="18"/>
+    </row>
+    <row r="11" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="21"/>
+    </row>
+    <row r="15" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="21"/>
+    </row>
+    <row r="19" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="24"/>
+    </row>
+    <row r="20" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="24"/>
+    </row>
+    <row r="21" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="24"/>
+    </row>
+    <row r="22" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="18"/>
+    </row>
+    <row r="25" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="24"/>
+    </row>
+    <row r="26" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="24"/>
+    </row>
+    <row r="28" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="18"/>
+    </row>
+    <row r="30" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B33" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="18"/>
+    </row>
+    <row r="34" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B34" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="17"/>
+    </row>
+    <row r="36" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B36" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="18"/>
+    </row>
+    <row r="37" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B37" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B38" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B39" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DB/DBMap.xlsx
+++ b/DB/DBMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="IP" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="185">
   <si>
     <t>Remote Desktop</t>
   </si>
@@ -574,6 +574,12 @@
   </si>
   <si>
     <t>WARRANTY</t>
+  </si>
+  <si>
+    <t>Trend Antivirus</t>
+  </si>
+  <si>
+    <t>Morrison196!</t>
   </si>
 </sst>
 </file>
@@ -838,6 +844,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -879,9 +888,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1561,10 +1567,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="B1:E40"/>
+  <dimension ref="B1:E41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,7 +1607,7 @@
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="4"/>
@@ -1695,157 +1701,167 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="B20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>170</v>
-      </c>
+      <c r="E23" s="3"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="25" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="25" t="s">
         <v>180</v>
       </c>
     </row>
@@ -1853,7 +1869,7 @@
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" display="mailto:morrisonitsupport@morrisonhomes.ca"/>
     <hyperlink ref="C10" r:id="rId2"/>
-    <hyperlink ref="B40" r:id="rId3" display="https://learn.microsoft.com/en-us/dotnet/api/system.data.odbc.odbcconnection?view=dotnet-plat-ext-8.0"/>
+    <hyperlink ref="B41" r:id="rId3" display="https://learn.microsoft.com/en-us/dotnet/api/system.data.odbc.odbcconnection?view=dotnet-plat-ext-8.0"/>
     <hyperlink ref="E11" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1869,7 +1885,7 @@
   <dimension ref="B2:U17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1890,295 +1906,295 @@
       <c r="B3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
     </row>
     <row r="10" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="36"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="34"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2282,7 +2298,7 @@
   </sheetPr>
   <dimension ref="B2:C37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
@@ -2295,10 +2311,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="39"/>
+      <c r="C2" s="40"/>
     </row>
     <row r="3" spans="2:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
@@ -2895,10 +2911,10 @@
       <c r="C2" s="12"/>
     </row>
     <row r="3" spans="2:3" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="40"/>
     </row>
     <row r="4" spans="2:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>

--- a/DB/DBMap.xlsx
+++ b/DB/DBMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IP" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="186">
   <si>
     <t>Remote Desktop</t>
   </si>
@@ -580,6 +580,9 @@
   </si>
   <si>
     <t>Morrison196!</t>
+  </si>
+  <si>
+    <t>https://csharp.hotexamples.com/examples/FirebirdSql.Data.FirebirdClient/FbCommand/-/php-fbcommand-class-examples.html</t>
   </si>
 </sst>
 </file>
@@ -775,7 +778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -888,6 +891,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1569,8 +1578,8 @@
   </sheetPr>
   <dimension ref="B1:E41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,10 +1891,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:U17"/>
+  <dimension ref="B2:U19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C14:U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2124,58 +2133,60 @@
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C16" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="34"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="34"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
@@ -2196,13 +2207,40 @@
       <c r="T17" s="31"/>
       <c r="U17" s="31"/>
     </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C19" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="C3:M3"/>
     <mergeCell ref="C13:U13"/>
+    <mergeCell ref="C17:U17"/>
+    <mergeCell ref="C18:U18"/>
     <mergeCell ref="C16:U16"/>
-    <mergeCell ref="C17:U17"/>
-    <mergeCell ref="C15:U15"/>
     <mergeCell ref="C14:U14"/>
     <mergeCell ref="C11:U11"/>
     <mergeCell ref="C10:U10"/>
@@ -2211,13 +2249,15 @@
     <mergeCell ref="C5:M5"/>
     <mergeCell ref="C6:M6"/>
     <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C15:U15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" location="fbdevgd30-efw"/>
+    <hyperlink ref="C16" r:id="rId1" location="fbdevgd30-efw"/>
     <hyperlink ref="C14" r:id="rId2"/>
+    <hyperlink ref="C15" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/DB/DBMap.xlsx
+++ b/DB/DBMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="IP" sheetId="1" r:id="rId1"/>
@@ -889,14 +889,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1578,8 +1578,8 @@
   </sheetPr>
   <dimension ref="B1:E41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1893,7 +1893,7 @@
   </sheetPr>
   <dimension ref="B2:U19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C16" sqref="C14:U16"/>
     </sheetView>
   </sheetViews>
@@ -2135,27 +2135,27 @@
       <c r="B15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
@@ -2351,10 +2351,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="42"/>
     </row>
     <row r="3" spans="2:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
@@ -2951,10 +2951,10 @@
       <c r="C2" s="12"/>
     </row>
     <row r="3" spans="2:3" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="42"/>
     </row>
     <row r="4" spans="2:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>

--- a/DB/DBMap.xlsx
+++ b/DB/DBMap.xlsx
@@ -14,6 +14,7 @@
     <sheet name="BPMOE" sheetId="5" r:id="rId5"/>
     <sheet name="BPMDOCMAN" sheetId="6" r:id="rId6"/>
     <sheet name="NETWORKMAP" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="259">
   <si>
     <t>Remote Desktop</t>
   </si>
@@ -246,9 +247,6 @@
     <t>VisualStudio</t>
   </si>
   <si>
-    <t>HMS Test</t>
-  </si>
-  <si>
     <t>MORSQL Prod/Test</t>
   </si>
   <si>
@@ -583,13 +581,235 @@
   </si>
   <si>
     <t>https://csharp.hotexamples.com/examples/FirebirdSql.Data.FirebirdClient/FbCommand/-/php-fbcommand-class-examples.html</t>
+  </si>
+  <si>
+    <t>Firebird</t>
+  </si>
+  <si>
+    <t>Sales Simplicity</t>
+  </si>
+  <si>
+    <t>AStephany</t>
+  </si>
+  <si>
+    <t>1Tsupp0rt$</t>
+  </si>
+  <si>
+    <t>ITSupport</t>
+  </si>
+  <si>
+    <t>1tsupp0rt</t>
+  </si>
+  <si>
+    <t>\\Morsssvm\c$\ssnet\attachments</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>\\MORFSDC1\CustomerDocs</t>
+  </si>
+  <si>
+    <t>Sales Simplicity Docs</t>
+  </si>
+  <si>
+    <t>BuilderMT workflow Man Docs</t>
+  </si>
+  <si>
+    <t>\\morfsdc1\msoffice\Dynamic Reporting\ReportCard</t>
+  </si>
+  <si>
+    <t>Report Cards</t>
+  </si>
+  <si>
+    <t>\\morfsdc1\msoffice\Dynamic Reporting</t>
+  </si>
+  <si>
+    <t>Reporting</t>
+  </si>
+  <si>
+    <t>Report Server</t>
+  </si>
+  <si>
+    <t>http://morsql/reports/</t>
+  </si>
+  <si>
+    <t>SELECT JOB.JOB_NUMBER, JOB.SITEADDRESS1, JOB.AREA_ID, AREA.AREA_DESC</t>
+  </si>
+  <si>
+    <t>FROM OPENQUERY(HMS, 'SELECT JOB_NUMBER, SITEADDRESS1, AREA_ID FROM JOB') AS JOB INNER JOIN</t>
+  </si>
+  <si>
+    <t>OPENQUERY(HMS, 'SELECT AREA_ID, AREA_DESC FROM AREA') AREA ON JOB.AREA_ID = AREA.AREA_ID INNER JOIN</t>
+  </si>
+  <si>
+    <t>OPENQUERY(HMS, 'SELECT JOB_NUMBER, SCHEDULE_ID FROM SCHEDULE') SCHEDULE ON SCHEDULE.JOB_NUMBER = JOB.JOB_NUMBER LEFT OUTER JOIN</t>
+  </si>
+  <si>
+    <t>OPENQUERY(HMS, 'SELECT SCHEDULE_ID, ACTUAL_END_DATE FROM SCHEDULE_SACTIVITY WHERE SACTIVITY_ID = 1098') PROJ_POSS ON SCHEDULE.SCHEDULE_ID = PROJ_POSS.SCHEDULE_ID LEFT OUTER JOIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPENQUERY(HMS, 'SELECT SCHEDULE_ID, ACTUAL_END_DATE FROM SCHEDULE_SACTIVITY WHERE SACTIVITY_ID = 1162') ACTUAL_POSS ON SCHEDULE.SCHEDULE_ID = ACTUAL_POSS.SCHEDULE_ID </t>
+  </si>
+  <si>
+    <t>WHERE JOB.JOB_NUMBER LIKE ('BTDZ%')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT DISTINCT AREA_DESC, WARRANTY_TECH, WARRANTY_START_YEAR, WARRANTY_START_MONTH, sum(COUNT) OVER (ORDER BY AREA_DESC, WARRANTY_TECH, WARRANTY_START_YEAR, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         [dbo].[udf_MonthnameToNumber](WARRANTY_START_MONTH) ASC) AS COUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FROM            </t>
+  </si>
+  <si>
+    <t>(/*Projected Possession Count*/</t>
+  </si>
+  <si>
+    <t>SELECT AREA.AREA_DESC, [dbo].[udf_GetWarrantyTech](job.job_number) AS WARRANTY_TECH</t>
+  </si>
+  <si>
+    <t>, YEAR(CASE WHEN ACTUAL_POSS.ACTUAL_END_DATE IS NOT NULL THEN ACTUAL_POSS.ACTUAL_END_DATE ELSE PROJ_POSS.ACTUAL_END_DATE END) AS WARRANTY_START_YEAR</t>
+  </si>
+  <si>
+    <t>, DATENAME(M, CASE WHEN ACTUAL_POSS.ACTUAL_END_DATE IS NOT NULL THEN ACTUAL_POSS.ACTUAL_END_DATE ELSE PROJ_POSS.ACTUAL_END_DATE END) AS WARRANTY_START_MONTH, COUNT(*) AS COUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          FROM            OPENQUERY(HMS, 'SELECT JOB_NUMBER, AREA_ID FROM JOB WHERE DIV_ID=4') JOB INNER JOIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                    OPENQUERY(HMS, 'SELECT * FROM AREA') AREA ON JOB.AREA_ID = AREA.AREA_ID INNER JOIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                    OPENQUERY(HMS, 'SELECT JOB_NUMBER, SCHEDULE_ID FROM SCHEDULE') SCHEDULE ON SCHEDULE.JOB_NUMBER = JOB.JOB_NUMBER LEFT OUTER JOIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                    OPENQUERY(HMS, 'SELECT SCHEDULE_ID, ACTUAL_END_DATE FROM SCHEDULE_SACTIVITY WHERE SACTIVITY_ID = 1098') PROJ_POSS ON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                    SCHEDULE.SCHEDULE_ID = PROJ_POSS.SCHEDULE_ID LEFT OUTER JOIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                    OPENQUERY(HMS, 'SELECT SCHEDULE_ID, ACTUAL_END_DATE FROM SCHEDULE_SACTIVITY WHERE SACTIVITY_ID = 1162') ACTUAL_POSS ON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                    SCHEDULE.SCHEDULE_ID = ACTUAL_POSS.SCHEDULE_ID LEFT OUTER JOIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                    OPENQUERY(HMS, 'SELECT SCHEDULE_ID, ACTUAL_END_DATE FROM SCHEDULE_SACTIVITY WHERE SACTIVITY_ID = 864') COND_REM ON SCHEDULE.SCHEDULE_ID = COND_REM.SCHEDULE_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          WHERE        PROJ_POSS.ACTUAL_END_DATE IS NOT NULL AND COND_REM.ACTUAL_END_DATE IS NOT NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          GROUP BY AREA.AREA_DESC, [dbo].[udf_GetWarrantyTech](job.job_number)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, YEAR(CASE WHEN ACTUAL_POSS.ACTUAL_END_DATE IS NOT NULL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                    THEN ACTUAL_POSS.ACTUAL_END_DATE ELSE PROJ_POSS.ACTUAL_END_DATE END)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, DATENAME(M, CASE WHEN ACTUAL_POSS.ACTUAL_END_DATE IS NOT NULL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          UNION ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         /*Projected Possession Count 1 year*/ SELECT AREA.AREA_DESC, [dbo].[udf_GetWarrantyTech](job.job_number) AS WARRANTY_TECH, YEAR(CASE WHEN ACTUAL_POSS.ACTUAL_END_DATE IS NOT NULL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                   THEN DATEADD(year, 1, ACTUAL_POSS.ACTUAL_END_DATE) ELSE dateadd(year, 1, PROJ_POSS.ACTUAL_END_DATE) END) AS WARRANTY_END_YEAR, DATENAME(M, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                   CASE WHEN ACTUAL_POSS.ACTUAL_END_DATE IS NOT NULL THEN DATEADD(year, 1, ACTUAL_POSS.ACTUAL_END_DATE) ELSE DATEADD(year, 1, PROJ_POSS.ACTUAL_END_DATE) END) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                   AS WARRANTY_END_MONTH, (COUNT(*) * - 1) AS COUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                   OPENQUERY(HMS, 'SELECT * FROM AREA') AREA ON JOB.AREA_ID = AREA.AREA_ID INNER JOIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                   OPENQUERY(HMS, 'SELECT JOB_NUMBER, SCHEDULE_ID FROM SCHEDULE') SCHEDULE ON SCHEDULE.JOB_NUMBER = JOB.JOB_NUMBER LEFT OUTER JOIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                   OPENQUERY(HMS, 'SELECT SCHEDULE_ID, ACTUAL_END_DATE FROM SCHEDULE_SACTIVITY WHERE SACTIVITY_ID = 1098') PROJ_POSS ON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                   SCHEDULE.SCHEDULE_ID = PROJ_POSS.SCHEDULE_ID LEFT OUTER JOIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                   OPENQUERY(HMS, 'SELECT SCHEDULE_ID, ACTUAL_END_DATE FROM SCHEDULE_SACTIVITY WHERE SACTIVITY_ID = 1162') ACTUAL_POSS ON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                   SCHEDULE.SCHEDULE_ID = ACTUAL_POSS.SCHEDULE_ID LEFT OUTER JOIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                   OPENQUERY(HMS, 'SELECT SCHEDULE_ID, ACTUAL_END_DATE FROM SCHEDULE_SACTIVITY WHERE SACTIVITY_ID = 864') COND_REM ON SCHEDULE.SCHEDULE_ID = COND_REM.SCHEDULE_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          WHERE        COND_REM.ACTUAL_END_DATE IS NOT NULL AND PROJ_POSS.ACTUAL_END_DATE IS NOT NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          GROUP BY AREA.AREA_DESC, [dbo].[udf_GetWarrantyTech](job.job_number), YEAR(CASE WHEN ACTUAL_POSS.ACTUAL_END_DATE IS NOT NULL THEN DATEADD(year, 1, ACTUAL_POSS.ACTUAL_END_DATE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                   ELSE dateadd(year, 1, PROJ_POSS.ACTUAL_END_DATE) END), DATENAME(M, CASE WHEN ACTUAL_POSS.ACTUAL_END_DATE IS NOT NULL THEN DATEADD(year, 1, ACTUAL_POSS.ACTUAL_END_DATE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                   ELSE DATEADD(year, 1, PROJ_POSS.ACTUAL_END_DATE) END)) X</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>BPMWorkflow</t>
+  </si>
+  <si>
+    <t>Data Source=MORSQL;Initial Catalog=ssnet;User Id=bpm_user;Password=resu_mpb1; TrustServerCertificate=True</t>
+  </si>
+  <si>
+    <t>SSNET</t>
+  </si>
+  <si>
+    <t>10.0.0.4</t>
+  </si>
+  <si>
+    <t>10.0.0.3</t>
+  </si>
+  <si>
+    <t>WMS morapps1</t>
+  </si>
+  <si>
+    <t>http://morsss.morrisonhomes.ca:8080/Login</t>
+  </si>
+  <si>
+    <t>\\10.0.0.3\wms\BuilderMT\HMS DATABASE\Morrison Reports</t>
+  </si>
+  <si>
+    <t>wms reporting</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>Ip Addresses</t>
+  </si>
+  <si>
+    <t>\\cgyps</t>
+  </si>
+  <si>
+    <t>Printer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,6 +873,14 @@
       <color theme="1"/>
       <name val="Century Gothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -778,7 +1006,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -850,9 +1078,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -897,6 +1140,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1576,17 +1823,19 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="B1:E41"/>
+  <dimension ref="B1:E50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="3" width="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1623,7 +1872,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>1</v>
@@ -1700,189 +1949,350 @@
         <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="3"/>
+      <c r="B14" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>3</v>
+        <v>186</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>9</v>
+        <v>189</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>190</v>
+      </c>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>200</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="10" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="4"/>
+    <row r="18" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>21</v>
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>24</v>
+      <c r="B22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D28" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="C33" s="49"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="25" t="s">
-        <v>180</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B18:D18"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" display="mailto:morrisonitsupport@morrisonhomes.ca"/>
     <hyperlink ref="C10" r:id="rId2"/>
-    <hyperlink ref="B41" r:id="rId3" display="https://learn.microsoft.com/en-us/dotnet/api/system.data.odbc.odbcconnection?view=dotnet-plat-ext-8.0"/>
+    <hyperlink ref="B50" r:id="rId3" display="https://learn.microsoft.com/en-us/dotnet/api/system.data.odbc.odbcconnection?view=dotnet-plat-ext-8.0"/>
     <hyperlink ref="E11" r:id="rId4"/>
+    <hyperlink ref="C35" r:id="rId5"/>
+    <hyperlink ref="C36" r:id="rId6"/>
+    <hyperlink ref="C38" r:id="rId7"/>
+    <hyperlink ref="E16" r:id="rId8"/>
+    <hyperlink ref="E13" r:id="rId9"/>
+    <hyperlink ref="C39" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -1891,16 +2301,17 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:U19"/>
+  <dimension ref="B2:U20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C14:U16"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.28515625" customWidth="1"/>
     <col min="20" max="20" width="9.28515625" customWidth="1"/>
     <col min="21" max="21" width="35.7109375" customWidth="1"/>
@@ -1915,202 +2326,208 @@
       <c r="B3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="C6" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C10" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-    </row>
-    <row r="10" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+    </row>
+    <row r="11" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C11" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C12" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>63</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
@@ -2129,132 +2546,159 @@
       <c r="R14" s="35"/>
       <c r="S14" s="35"/>
       <c r="T14" s="35"/>
-      <c r="U14" s="36"/>
+      <c r="U14" s="35"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
+        <v>75</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
       <c r="U15" s="41"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C17" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="34"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="39"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C19" s="25"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C20" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C13:U13"/>
+  <mergeCells count="15">
+    <mergeCell ref="D3:N3"/>
+    <mergeCell ref="C14:U14"/>
+    <mergeCell ref="C18:U18"/>
+    <mergeCell ref="C19:U19"/>
     <mergeCell ref="C17:U17"/>
-    <mergeCell ref="C18:U18"/>
-    <mergeCell ref="C16:U16"/>
-    <mergeCell ref="C14:U14"/>
+    <mergeCell ref="C15:U15"/>
+    <mergeCell ref="C12:U12"/>
     <mergeCell ref="C11:U11"/>
     <mergeCell ref="C10:U10"/>
-    <mergeCell ref="C9:U9"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C15:U15"/>
+    <mergeCell ref="D4:N4"/>
+    <mergeCell ref="D5:N5"/>
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="C16:U16"/>
+    <mergeCell ref="D6:N6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1" location="fbdevgd30-efw"/>
-    <hyperlink ref="C14" r:id="rId2"/>
-    <hyperlink ref="C15" r:id="rId3"/>
+    <hyperlink ref="C17" r:id="rId1" location="fbdevgd30-efw"/>
+    <hyperlink ref="C15" r:id="rId2"/>
+    <hyperlink ref="C16" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -2269,7 +2713,7 @@
   <dimension ref="B3:F5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2351,263 +2795,263 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="42"/>
+      <c r="B2" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="47"/>
     </row>
     <row r="3" spans="2:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C4" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>83</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="18"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="21"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>97</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>99</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" s="21"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>102</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="18"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C25" s="17"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" s="18"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="17"/>
       <c r="C28" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" s="18"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>116</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>118</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C34" s="18"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2640,213 +3084,213 @@
   <sheetData>
     <row r="2" spans="2:5" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="12"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="12"/>
       <c r="C3" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="18"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="21"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>137</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>139</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" s="21"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>145</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="18"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C27" s="18"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -2855,32 +3299,32 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" s="18"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>116</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>118</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
@@ -2889,32 +3333,32 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C36" s="18"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
@@ -2951,10 +3395,10 @@
       <c r="C2" s="12"/>
     </row>
     <row r="3" spans="2:3" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="42"/>
+      <c r="B3" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="47"/>
     </row>
     <row r="4" spans="2:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
@@ -2963,246 +3407,246 @@
     <row r="5" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="33" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="24"/>
     </row>
     <row r="8" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>83</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="18"/>
     </row>
     <row r="11" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>160</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="21"/>
     </row>
     <row r="15" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>99</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="21"/>
     </row>
     <row r="19" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="24"/>
     </row>
     <row r="20" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="24"/>
     </row>
     <row r="21" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" s="24"/>
     </row>
     <row r="22" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>166</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="18"/>
     </row>
     <row r="25" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B25" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" s="24"/>
     </row>
     <row r="26" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="24"/>
     </row>
     <row r="28" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B28" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B29" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" s="18"/>
     </row>
     <row r="30" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B30" s="17"/>
       <c r="C30" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B31" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C33" s="18"/>
     </row>
     <row r="34" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B34" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>116</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B35" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C35" s="17"/>
     </row>
     <row r="36" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B36" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C36" s="18"/>
     </row>
     <row r="37" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B38" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B39" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C39" s="24"/>
     </row>
@@ -3230,4 +3674,244 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:O53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:O53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O33" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DB/DBMap.xlsx
+++ b/DB/DBMap.xlsx
@@ -1825,8 +1825,8 @@
   </sheetPr>
   <dimension ref="B1:E50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
